--- a/biology/Botanique/Clematis_hirsuta/Clematis_hirsuta.xlsx
+++ b/biology/Botanique/Clematis_hirsuta/Clematis_hirsuta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Clematis hirsuta est une espèce de plantes grimpantes de la famille des Ranunculaceae et du genre Clematis. Un extrait de ses feuilles s'est révélé avoir une action antifongique sur Candida albicans[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Clematis hirsuta est une espèce de plantes grimpantes de la famille des Ranunculaceae et du genre Clematis. Un extrait de ses feuilles s'est révélé avoir une action antifongique sur Candida albicans.
 </t>
         </is>
       </c>
